--- a/交流管理/项目日报/韩旭-日报.xlsx
+++ b/交流管理/项目日报/韩旭-日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,14 @@
   </si>
   <si>
     <t>测试阿里云api网关暴露接口</t>
+  </si>
+  <si>
+    <t>测试钉钉上传媒体文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写钉钉企业文件推送的相关文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试钉钉上传媒体文件接口</t>
@@ -528,7 +536,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -635,10 +643,26 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="E7" s="2"/>
+      <c r="A7" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" s="2"/>
+      <c r="A8" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>

--- a/交流管理/项目日报/韩旭-日报.xlsx
+++ b/交流管理/项目日报/韩旭-日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>测试钉钉上传媒体文件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swagger生成api文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +544,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -665,7 +673,21 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>446</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/韩旭-日报.xlsx
+++ b/交流管理/项目日报/韩旭-日报.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,22 @@
   </si>
   <si>
     <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swagger生成api文档转换markdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swagger ui测试接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uml序列图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -686,6 +702,45 @@
         <v>16</v>
       </c>
       <c r="E9" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>446</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
         <v>0.8</v>
       </c>
     </row>
